--- a/返修记录2016.10.24.xlsx
+++ b/返修记录2016.10.24.xlsx
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="217">
   <si>
     <t>2016年度返修记录－－未完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1167,6 +1167,10 @@
   </si>
   <si>
     <t>速率慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello world</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1734,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -3031,6 +3035,11 @@
       </c>
       <c r="O41" s="34" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
